--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jiekou-python3\test_case_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>用例ID</t>
   </si>
@@ -39,40 +44,40 @@
     <t>期望</t>
   </si>
   <si>
-    <t>图灵api接口</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>{'password':'1222'}</t>
+    <t>/cmsapi/third_anniversary/get_my_convert_list</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
-  </si>
-  <si>
-    <t>code=40002</t>
-  </si>
-  <si>
-    <t>/openapi/api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/openapi/api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>code=200</t>
+  </si>
+  <si>
+    <t>/cmsapi/third_anniversary/get_my_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三周年抽奖活动-获取我得收货地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三周年抽奖活动-兑换记录接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":"1","size":"50","token":"72bbdfd0b5bbb527"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"72bbdfd0b5bbb527"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +89,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -128,15 +125,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -148,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,15 +440,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="61.875" customWidth="1"/>
+    <col min="5" max="5" width="51.25" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,22 +480,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -506,29 +500,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E3" r:id="rId2" tooltip="http://www.tuling123.com/openapi/api_x000a_" display="http://www.tuling123.com/openapi/api_x000a_"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" display="/cmsapi/third_anniversary/get_my_convert_list"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -545,7 +536,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -559,7 +550,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
